--- a/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
+++ b/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\AriHino\AriHino\Assets\ArihinoMain\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15068C6-DF06-4102-A1C1-863479DEB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4209D763-090C-42E2-B494-F9010BAF7E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1078">
   <si>
     <t>Command</t>
   </si>
@@ -3440,6 +3440,73 @@
     <rPh sb="1" eb="2">
       <t>キ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローブ-通常</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローブ-笑顔</t>
+    <rPh sb="4" eb="6">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ右</t>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ左</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家前_森側</t>
+    <rPh sb="0" eb="2">
+      <t>イエマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モリガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>脱-通常</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家_リビング</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑顔</t>
+    <rPh sb="0" eb="2">
+      <t>エガオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CharacterOff</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3811,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A809" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D823" sqref="D823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5150,6 +5217,9 @@
       <c r="B138" t="s">
         <v>89</v>
       </c>
+      <c r="C138" s="3" t="s">
+        <v>1068</v>
+      </c>
       <c r="I138" t="s">
         <v>90</v>
       </c>
@@ -5725,7 +5795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>81</v>
       </c>
@@ -5733,7 +5803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>89</v>
       </c>
@@ -5741,7 +5811,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>81</v>
       </c>
@@ -5749,7 +5819,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>81</v>
       </c>
@@ -5757,7 +5827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I231" t="s">
         <v>176</v>
       </c>
@@ -5765,12 +5835,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I233" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>89</v>
       </c>
@@ -5781,25 +5851,34 @@
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N235" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1073</v>
+      </c>
       <c r="N236" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>182</v>
       </c>
+      <c r="C237" t="s">
+        <v>1070</v>
+      </c>
       <c r="I237" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>182</v>
       </c>
@@ -5807,7 +5886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I239" t="s">
         <v>186</v>
       </c>
@@ -5818,6 +5897,12 @@
     <row r="241" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>89</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1071</v>
       </c>
       <c r="I241" t="s">
         <v>188</v>
@@ -5838,6 +5923,9 @@
       <c r="B244" t="s">
         <v>182</v>
       </c>
+      <c r="D244" t="s">
+        <v>1072</v>
+      </c>
       <c r="I244" t="s">
         <v>191</v>
       </c>
@@ -9357,7 +9445,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="786" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B786" t="s">
         <v>89</v>
       </c>
@@ -9365,7 +9453,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="787" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B787" t="s">
         <v>81</v>
       </c>
@@ -9373,7 +9461,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="788" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B788" t="s">
         <v>89</v>
       </c>
@@ -9381,7 +9469,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="789" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B789" t="s">
         <v>89</v>
       </c>
@@ -9389,7 +9477,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="790" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B790" t="s">
         <v>81</v>
       </c>
@@ -9397,7 +9485,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="791" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B791" t="s">
         <v>89</v>
       </c>
@@ -9405,7 +9493,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="792" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B792" t="s">
         <v>81</v>
       </c>
@@ -9416,7 +9504,15 @@
         <v>706</v>
       </c>
     </row>
-    <row r="794" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B794" t="s">
         <v>182</v>
       </c>
@@ -9424,7 +9520,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="795" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B795" t="s">
         <v>81</v>
       </c>
@@ -9432,12 +9528,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="796" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I796" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="797" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B797" t="s">
         <v>89</v>
       </c>
@@ -9445,7 +9541,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="798" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B798" t="s">
         <v>81</v>
       </c>
@@ -9453,7 +9549,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="799" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B799" t="s">
         <v>89</v>
       </c>
@@ -9586,7 +9682,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="817" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B817" t="s">
         <v>81</v>
       </c>
@@ -9597,7 +9693,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="819" spans="2:14" ht="33" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:14" ht="33" x14ac:dyDescent="0.35">
       <c r="I819" t="s">
         <v>732</v>
       </c>
@@ -9605,7 +9701,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="821" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B821" t="s">
         <v>81</v>
       </c>
@@ -9613,20 +9714,23 @@
         <v>734</v>
       </c>
     </row>
-    <row r="822" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I822" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="823" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B823" t="s">
         <v>89</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1074</v>
       </c>
       <c r="I823" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="824" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B824" t="s">
         <v>81</v>
       </c>
@@ -9634,7 +9738,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="825" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B825" t="s">
         <v>89</v>
       </c>
@@ -9642,7 +9746,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="826" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B826" t="s">
         <v>89</v>
       </c>
@@ -9650,7 +9754,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="827" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B827" t="s">
         <v>81</v>
       </c>
@@ -9658,7 +9762,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="828" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B828" t="s">
         <v>89</v>
       </c>
@@ -9666,7 +9770,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="829" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B829" t="s">
         <v>89</v>
       </c>
@@ -9674,12 +9778,12 @@
         <v>742</v>
       </c>
     </row>
-    <row r="830" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I830" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="831" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B831" t="s">
         <v>81</v>
       </c>
@@ -9687,7 +9791,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="832" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I832" t="s">
         <v>745</v>
       </c>
@@ -9754,6 +9858,9 @@
     <row r="842" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B842" t="s">
         <v>182</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1076</v>
       </c>
       <c r="I842" t="s">
         <v>755</v>

--- a/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
+++ b/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1747">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -1774,31 +1774,31 @@
     <t xml:space="preserve">「まぁ」</t>
   </si>
   <si>
+    <t xml:space="preserve">悩み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あの子は縛りを嫌う。　それは分かっているんだがな……最近はどうも……」</t>
+  </si>
+  <si>
     <t xml:space="preserve">She hates being tied down. I get that... but lately...</t>
   </si>
   <si>
-    <t xml:space="preserve">悩み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あの子は縛りを嫌う。　それは分かっているんだがな……最近はどうも……」</t>
+    <t xml:space="preserve">「所詮はワガママだ」</t>
   </si>
   <si>
     <t xml:space="preserve">It's just selfishness.</t>
   </si>
   <si>
-    <t xml:space="preserve">「所詮はワガママだ」</t>
+    <t xml:space="preserve">「お前さん、エレナにはえらく手厳しいからのぉ」</t>
   </si>
   <si>
     <t xml:space="preserve">You're pretty harsh on Elena.</t>
   </si>
   <si>
-    <t xml:space="preserve">「お前さん、エレナにはえらく手厳しいからのぉ」</t>
+    <t xml:space="preserve">「好き嫌いの問題じゃない」</t>
   </si>
   <si>
     <t xml:space="preserve">It's not about liking or disliking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「好き嫌いの問題じゃない」</t>
   </si>
   <si>
     <t xml:space="preserve">イライラが募ったシンは振り返ってダスティンを見据える。</t>
@@ -2447,13 +2447,16 @@
     <t xml:space="preserve">「行きましょ!」</t>
   </si>
   <si>
+    <t xml:space="preserve">Let's go!</t>
+  </si>
+  <si>
     <t xml:space="preserve">x=900</t>
   </si>
   <si>
     <t xml:space="preserve">「ワシから言っておいてなんだが……エレナも病み上がりだ。　頼むぞ」</t>
   </si>
   <si>
-    <t xml:space="preserve">Let's go!</t>
+    <t xml:space="preserve">I know it's ironic coming from me, but Elena is still recovering. Please take care of her. </t>
   </si>
   <si>
     <t xml:space="preserve">夕森</t>
@@ -5283,10 +5286,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -5370,7 +5372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5399,10 +5401,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5426,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:O1207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A755" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E790" activeCellId="0" sqref="E790"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A762" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I782" activeCellId="0" sqref="I782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5436,7 +5434,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="102.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="124.57"/>
@@ -5457,7 +5455,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5752,7 +5750,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="n">
         <v>0.8</v>
@@ -5767,7 +5765,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
@@ -5778,7 +5776,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="n">
         <v>2</v>
@@ -5872,7 +5870,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="n">
         <v>1.3</v>
@@ -5888,7 +5886,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
@@ -5899,7 +5897,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
@@ -5910,7 +5908,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
@@ -5923,7 +5921,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
@@ -5934,7 +5932,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
@@ -5945,7 +5943,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
@@ -6000,7 +5998,7 @@
       <c r="D52" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="4" t="n">
         <v>-300</v>
       </c>
       <c r="F52" s="6"/>
@@ -6039,7 +6037,7 @@
       <c r="D55" s="6" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="4" t="n">
         <v>-300</v>
       </c>
       <c r="F55" s="6"/>
@@ -6080,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="n">
         <v>1</v>
@@ -6121,7 +6119,7 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="n">
         <v>0.8</v>
@@ -6144,7 +6142,7 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="n">
         <v>0.8</v>
@@ -6159,7 +6157,7 @@
       </c>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="n">
         <v>2</v>
@@ -6339,7 +6337,7 @@
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6" t="n">
         <v>3</v>
@@ -6352,7 +6350,7 @@
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
@@ -6363,7 +6361,7 @@
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
@@ -6374,7 +6372,7 @@
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6" t="n">
         <v>2</v>
@@ -6387,7 +6385,7 @@
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
@@ -6398,7 +6396,7 @@
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
@@ -6407,7 +6405,7 @@
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
@@ -6605,7 +6603,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>47</v>
       </c>
@@ -6861,7 +6859,7 @@
         <v>27</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
@@ -6874,7 +6872,7 @@
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
@@ -6885,7 +6883,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6" t="n">
         <v>1</v>
@@ -6919,7 +6917,7 @@
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
@@ -6930,7 +6928,7 @@
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
@@ -6941,7 +6939,7 @@
       <c r="B135" s="6"/>
       <c r="C135" s="4"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6" t="n">
         <v>2</v>
@@ -6958,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="4"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
@@ -6969,7 +6967,7 @@
       <c r="B137" s="6"/>
       <c r="C137" s="4"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
@@ -6980,7 +6978,7 @@
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
@@ -6995,7 +6993,7 @@
         <v>28</v>
       </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
@@ -8501,7 +8499,7 @@
       <c r="C274" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E274" s="1" t="n">
+      <c r="E274" s="2" t="n">
         <v>-500</v>
       </c>
       <c r="H274" s="1" t="s">
@@ -8908,7 +8906,7 @@
       <c r="D311" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E311" s="1" t="n">
+      <c r="E311" s="2" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -9841,9 +9839,6 @@
       <c r="B400" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="M400" s="1" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="1" t="s">
@@ -9853,7 +9848,7 @@
         <v>580</v>
       </c>
       <c r="M401" s="1" t="s">
-        <v>581</v>
+        <v>235</v>
       </c>
       <c r="O401" s="1" t="s">
         <v>575</v>
@@ -9864,13 +9859,13 @@
         <v>463</v>
       </c>
       <c r="C402" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I402" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="I402" s="1" t="s">
+      <c r="M402" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="M402" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,10 +9873,10 @@
         <v>229</v>
       </c>
       <c r="I403" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="M403" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="M403" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="O403" s="1" t="s">
         <v>575</v>
@@ -9895,10 +9890,10 @@
         <v>188</v>
       </c>
       <c r="I404" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="M404" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="M404" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9906,6 +9901,9 @@
         <v>229</v>
       </c>
       <c r="I405" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="M405" s="1" t="s">
         <v>589</v>
       </c>
       <c r="O405" s="1" t="s">
@@ -10707,7 +10705,7 @@
         <v>463</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I477" s="1" t="s">
         <v>695</v>
@@ -11068,7 +11066,7 @@
       <c r="B512" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E512" s="1" t="s">
+      <c r="E512" s="2" t="s">
         <v>729</v>
       </c>
       <c r="H512" s="1" t="s">
@@ -11082,7 +11080,7 @@
       <c r="C513" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E513" s="6"/>
+      <c r="E513" s="4"/>
       <c r="F513" s="6"/>
       <c r="I513" s="1" t="s">
         <v>731</v>
@@ -11483,7 +11481,7 @@
         <v>463</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I550" s="1" t="s">
         <v>780</v>
@@ -11662,6 +11660,9 @@
       <c r="I565" s="1" t="s">
         <v>804</v>
       </c>
+      <c r="M565" s="1" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
@@ -11674,7 +11675,7 @@
         <v>302</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11701,10 +11702,10 @@
         <v>393</v>
       </c>
       <c r="I569" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="M569" s="1" t="s">
         <v>807</v>
+      </c>
+      <c r="M569" s="5" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11756,7 +11757,7 @@
         <v>29</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="6"/>
@@ -11772,7 +11773,7 @@
         <v>455</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D575" s="6"/>
       <c r="G575" s="6" t="n">
@@ -11784,7 +11785,7 @@
         <v>16</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C577" s="4" t="s">
         <v>18</v>
@@ -11798,10 +11799,10 @@
         <v>498</v>
       </c>
       <c r="I578" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M578" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11809,10 +11810,10 @@
         <v>229</v>
       </c>
       <c r="I579" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M579" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11823,13 +11824,13 @@
         <v>301</v>
       </c>
       <c r="I580" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J580" s="1" t="s">
         <v>256</v>
       </c>
       <c r="M580" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11840,10 +11841,10 @@
         <v>258</v>
       </c>
       <c r="I581" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M581" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11871,10 +11872,10 @@
         <v>293</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M583" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11882,10 +11883,10 @@
         <v>229</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M584" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11896,10 +11897,10 @@
         <v>328</v>
       </c>
       <c r="I585" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M585" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11907,10 +11908,10 @@
         <v>229</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M586" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11921,10 +11922,10 @@
         <v>334</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M587" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11932,10 +11933,10 @@
         <v>229</v>
       </c>
       <c r="I588" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M588" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11946,10 +11947,10 @@
         <v>254</v>
       </c>
       <c r="I589" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M589" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11960,10 +11961,10 @@
         <v>222</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M590" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11971,10 +11972,10 @@
         <v>221</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M591" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11985,10 +11986,10 @@
         <v>323</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M592" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11999,10 +12000,10 @@
         <v>236</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M593" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,10 +12011,10 @@
         <v>229</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M594" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,10 +12025,10 @@
         <v>263</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M595" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12038,10 +12039,10 @@
         <v>334</v>
       </c>
       <c r="I596" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M596" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12049,10 +12050,10 @@
         <v>229</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M597" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12065,7 +12066,7 @@
         <v>150</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12076,21 +12077,21 @@
         <v>263</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M600" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I601" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M601" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O601" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12098,10 +12099,10 @@
         <v>229</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M602" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12112,13 +12113,13 @@
         <v>323</v>
       </c>
       <c r="I603" s="5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J603" s="1" t="s">
         <v>256</v>
       </c>
       <c r="M603" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12126,21 +12127,21 @@
         <v>221</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I604" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M604" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I605" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M605" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12151,10 +12152,10 @@
         <v>328</v>
       </c>
       <c r="I606" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M606" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,7 +12168,7 @@
         <v>29</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12175,10 +12176,10 @@
         <v>229</v>
       </c>
       <c r="I609" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M609" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12186,13 +12187,13 @@
         <v>221</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I610" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M610" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,10 +12204,10 @@
         <v>263</v>
       </c>
       <c r="I611" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M611" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12217,18 +12218,18 @@
         <v>323</v>
       </c>
       <c r="I612" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M612" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I613" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M613" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12236,10 +12237,10 @@
         <v>229</v>
       </c>
       <c r="I614" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M614" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12247,16 +12248,16 @@
         <v>221</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I615" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M615" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O615" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12270,7 +12271,7 @@
         <v>302</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,16 +12279,16 @@
         <v>221</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I617" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M617" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O617" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12301,7 +12302,7 @@
         <v>302</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,13 +12313,13 @@
         <v>245</v>
       </c>
       <c r="I619" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M619" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O619" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,10 +12338,10 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I621" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M621" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12381,7 +12382,7 @@
         <v>29</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="6"/>
@@ -12397,7 +12398,7 @@
         <v>455</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D626" s="6"/>
       <c r="G626" s="6" t="n">
@@ -12409,19 +12410,19 @@
         <v>150</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I628" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M628" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O628" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12432,10 +12433,10 @@
         <v>254</v>
       </c>
       <c r="I629" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M629" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12443,10 +12444,10 @@
         <v>229</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M630" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,10 +12458,10 @@
         <v>432</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M631" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12468,10 +12469,10 @@
         <v>229</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M632" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12479,13 +12480,13 @@
         <v>221</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M633" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12493,10 +12494,10 @@
         <v>229</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M634" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12504,16 +12505,16 @@
         <v>221</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="J635" s="1" t="s">
         <v>256</v>
       </c>
       <c r="M635" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,13 +12522,13 @@
         <v>221</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M636" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12535,10 +12536,10 @@
         <v>229</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M637" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12546,10 +12547,10 @@
         <v>229</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M638" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12560,10 +12561,10 @@
         <v>263</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M639" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,10 +12572,10 @@
         <v>229</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M640" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12593,7 +12594,7 @@
         <v>69</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12601,13 +12602,13 @@
         <v>221</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M643" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12620,10 +12621,10 @@
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I645" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M645" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12634,18 +12635,18 @@
         <v>310</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M646" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I647" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M647" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12656,10 +12657,10 @@
         <v>258</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M648" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12667,13 +12668,13 @@
         <v>221</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M649" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12681,10 +12682,10 @@
         <v>229</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M650" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O650" s="1" t="s">
         <v>453</v>
@@ -12692,21 +12693,21 @@
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I651" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M651" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I652" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M652" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O652" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12714,13 +12715,13 @@
         <v>229</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M653" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O653" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12731,10 +12732,10 @@
         <v>222</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M654" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12742,10 +12743,10 @@
         <v>229</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M655" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12756,13 +12757,13 @@
         <v>344</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M656" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O656" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12773,10 +12774,10 @@
         <v>222</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M657" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12784,10 +12785,10 @@
         <v>229</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M658" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12798,10 +12799,10 @@
         <v>268</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M659" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12817,10 +12818,10 @@
         <v>229</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M661" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12828,13 +12829,13 @@
         <v>221</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M662" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12842,10 +12843,10 @@
         <v>229</v>
       </c>
       <c r="I663" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M663" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12853,10 +12854,10 @@
         <v>229</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M664" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,10 +12865,10 @@
         <v>229</v>
       </c>
       <c r="I665" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M665" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,10 +12879,10 @@
         <v>254</v>
       </c>
       <c r="I666" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M666" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12889,10 +12890,10 @@
         <v>229</v>
       </c>
       <c r="I667" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M667" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12900,21 +12901,21 @@
         <v>221</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I668" s="1" t="s">
         <v>237</v>
       </c>
       <c r="M668" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I669" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M669" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12922,10 +12923,10 @@
         <v>229</v>
       </c>
       <c r="I670" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M670" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12933,10 +12934,10 @@
         <v>229</v>
       </c>
       <c r="I671" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M671" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,13 +12945,13 @@
         <v>221</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I672" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M672" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12958,18 +12959,18 @@
         <v>229</v>
       </c>
       <c r="I673" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M673" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I674" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M674" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O674" s="1" t="s">
         <v>453</v>
@@ -12980,10 +12981,10 @@
         <v>229</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M675" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12994,10 +12995,10 @@
         <v>268</v>
       </c>
       <c r="I676" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M676" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13005,13 +13006,13 @@
         <v>229</v>
       </c>
       <c r="I677" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M677" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O677" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13019,13 +13020,13 @@
         <v>221</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I678" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M678" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,10 +13034,10 @@
         <v>229</v>
       </c>
       <c r="I679" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M679" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13047,10 +13048,10 @@
         <v>245</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M680" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13058,10 +13059,10 @@
         <v>229</v>
       </c>
       <c r="I681" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M681" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13069,10 +13070,10 @@
         <v>221</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I682" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M682" s="1" t="s">
         <v>272</v>
@@ -13083,10 +13084,10 @@
         <v>229</v>
       </c>
       <c r="I683" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M683" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13094,10 +13095,10 @@
         <v>221</v>
       </c>
       <c r="I684" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M684" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,10 +13106,10 @@
         <v>229</v>
       </c>
       <c r="I685" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M685" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13119,10 +13120,10 @@
         <v>254</v>
       </c>
       <c r="I686" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M686" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13136,7 +13137,7 @@
         <v>302</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13191,13 +13192,13 @@
         <v>229</v>
       </c>
       <c r="I692" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M692" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O692" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,16 +13206,16 @@
         <v>221</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I694" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M694" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O694" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13225,10 +13226,10 @@
         <v>245</v>
       </c>
       <c r="I695" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M695" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13239,10 +13240,10 @@
         <v>254</v>
       </c>
       <c r="I696" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M696" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13250,10 +13251,10 @@
         <v>229</v>
       </c>
       <c r="I697" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M697" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13264,10 +13265,10 @@
         <v>258</v>
       </c>
       <c r="I698" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M698" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,10 +13287,10 @@
         <v>221</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H700" s="1" t="s">
         <v>423</v>
@@ -13308,7 +13309,7 @@
       <c r="D701" s="1" t="n">
         <v>-450</v>
       </c>
-      <c r="E701" s="1" t="n">
+      <c r="E701" s="2" t="n">
         <v>-200</v>
       </c>
     </row>
@@ -13336,10 +13337,10 @@
         <v>221</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13350,10 +13351,10 @@
         <v>310</v>
       </c>
       <c r="I705" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M705" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13361,10 +13362,10 @@
         <v>229</v>
       </c>
       <c r="I706" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M706" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13375,10 +13376,10 @@
         <v>349</v>
       </c>
       <c r="I707" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M707" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13386,29 +13387,29 @@
         <v>229</v>
       </c>
       <c r="I708" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M708" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I709" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M709" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I710" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M710" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O710" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13416,13 +13417,13 @@
         <v>221</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I711" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M711" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13430,10 +13431,10 @@
         <v>229</v>
       </c>
       <c r="I712" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M712" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13469,10 +13470,10 @@
         <v>663</v>
       </c>
       <c r="I715" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="M715" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13480,10 +13481,10 @@
         <v>229</v>
       </c>
       <c r="I716" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M716" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,10 +13495,10 @@
         <v>349</v>
       </c>
       <c r="I717" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="M717" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13505,10 +13506,10 @@
         <v>229</v>
       </c>
       <c r="I718" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M718" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13519,10 +13520,10 @@
         <v>663</v>
       </c>
       <c r="I719" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M719" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13530,10 +13531,10 @@
         <v>229</v>
       </c>
       <c r="I720" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M720" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13541,10 +13542,10 @@
         <v>229</v>
       </c>
       <c r="I721" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M721" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,10 +13585,10 @@
         <v>221</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13603,10 +13604,10 @@
         <v>78</v>
       </c>
       <c r="I727" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M727" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13630,10 +13631,10 @@
         <v>78</v>
       </c>
       <c r="I730" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M730" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13644,10 +13645,10 @@
         <v>78</v>
       </c>
       <c r="I731" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M731" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13655,10 +13656,10 @@
         <v>229</v>
       </c>
       <c r="I732" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M732" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,7 +13670,7 @@
         <v>68</v>
       </c>
       <c r="O733" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13692,18 +13693,18 @@
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="I736" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M736" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I737" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M737" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13719,44 +13720,44 @@
         <v>29</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I740" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M740" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I741" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M741" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I742" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M742" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O742" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O743" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O744" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13764,53 +13765,53 @@
         <v>229</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M746" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I747" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="M747" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I748" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M748" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I749" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M749" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I750" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M750" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I751" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M751" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="O751" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13821,26 +13822,26 @@
         <v>1</v>
       </c>
       <c r="O752" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I753" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M753" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I754" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M754" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="O754" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13849,7 @@
         <v>69</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13861,21 +13862,21 @@
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I757" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M757" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="O757" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I758" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M758" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13886,7 +13887,7 @@
         <v>662</v>
       </c>
       <c r="O760" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13932,10 +13933,10 @@
         <v>463</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="M765" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13946,10 +13947,10 @@
         <v>697</v>
       </c>
       <c r="M766" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="O766" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13973,10 +13974,10 @@
         <v>29</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O769" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,7 +13985,7 @@
         <v>69</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13997,10 +13998,10 @@
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I772" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="M772" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14008,7 +14009,7 @@
         <v>150</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14016,7 +14017,7 @@
         <v>69</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>18</v>
@@ -14024,26 +14025,26 @@
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I775" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M775" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I776" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="M776" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I777" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="M777" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14070,10 +14071,10 @@
         <v>229</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="M780" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14128,16 +14129,16 @@
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E788" s="7" t="b">
-        <v>0</v>
+        <v>1136</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14148,10 +14149,10 @@
         <v>78</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M789" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14162,10 +14163,10 @@
         <v>78</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="M790" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14192,7 +14193,7 @@
         <v>29</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C793" s="4"/>
     </row>
@@ -14204,13 +14205,13 @@
         <v>229</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M795" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="O795" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14232,7 +14233,7 @@
         <v>69</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C797" s="4"/>
       <c r="D797" s="6"/>
@@ -14242,7 +14243,7 @@
         <v>69</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C798" s="4"/>
       <c r="D798" s="6"/>
@@ -14252,7 +14253,7 @@
         <v>29</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C799" s="4"/>
       <c r="D799" s="6"/>
@@ -14280,10 +14281,10 @@
         <v>229</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="M802" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14294,18 +14295,18 @@
         <v>78</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="M803" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I804" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="M804" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14327,10 +14328,10 @@
         <v>78</v>
       </c>
       <c r="I806" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M806" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14341,13 +14342,13 @@
         <v>78</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="M807" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="O807" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,7 +14370,7 @@
         <v>29</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C809" s="4"/>
       <c r="D809" s="6"/>
@@ -14385,7 +14386,7 @@
         <v>455</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D810" s="6"/>
       <c r="G810" s="6" t="n">
@@ -14424,13 +14425,13 @@
         <v>221</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M814" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14438,10 +14439,10 @@
         <v>229</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M815" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14449,10 +14450,10 @@
         <v>221</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M816" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,13 +14461,13 @@
         <v>229</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="M817" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="O817" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14477,10 +14478,10 @@
         <v>498</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="M818" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14488,10 +14489,10 @@
         <v>229</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="M819" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14499,10 +14500,10 @@
         <v>221</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="M820" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14510,10 +14511,10 @@
         <v>229</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M821" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14529,13 +14530,13 @@
         <v>221</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="M823" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="O823" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14543,10 +14544,10 @@
         <v>463</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="M824" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14554,13 +14555,13 @@
         <v>221</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="M825" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14568,10 +14569,10 @@
         <v>229</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M826" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14579,29 +14580,29 @@
         <v>221</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M827" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I828" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="M828" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I829" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="M829" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14609,13 +14610,13 @@
         <v>221</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="M830" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14623,10 +14624,10 @@
         <v>463</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="M831" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,13 +14635,13 @@
         <v>221</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="M832" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14648,10 +14649,10 @@
         <v>463</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="M833" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14662,10 +14663,10 @@
         <v>221</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,13 +14674,13 @@
         <v>221</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M835" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14690,10 +14691,10 @@
         <v>498</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="M836" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14707,7 +14708,7 @@
         <v>295</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14715,7 +14716,7 @@
         <v>221</v>
       </c>
       <c r="C838" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14729,7 +14730,7 @@
         <v>295</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14737,13 +14738,13 @@
         <v>221</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="M840" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14751,18 +14752,18 @@
         <v>221</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B842" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="M842" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,21 +14802,21 @@
         <v>69</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C846" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M846" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I847" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M847" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14826,7 +14827,7 @@
         <v>188</v>
       </c>
       <c r="I848" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14834,32 +14835,32 @@
         <v>221</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="M850" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O850" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I851" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="M851" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I852" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="M852" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14867,7 +14868,7 @@
         <v>69</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,7 +14887,7 @@
         <v>73</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14903,15 +14904,15 @@
         <v>150</v>
       </c>
       <c r="B857" s="6" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I858" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="M858" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,10 +14920,10 @@
         <v>463</v>
       </c>
       <c r="I859" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="M859" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,13 +14931,13 @@
         <v>221</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I860" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M860" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14944,13 +14945,13 @@
         <v>221</v>
       </c>
       <c r="C861" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I861" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="M861" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14972,13 +14973,13 @@
         <v>221</v>
       </c>
       <c r="C863" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="M863" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14989,13 +14990,13 @@
         <v>498</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="M864" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="O864" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15003,13 +15004,13 @@
         <v>221</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="I865" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M865" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15020,10 +15021,10 @@
         <v>498</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="M866" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15031,13 +15032,13 @@
         <v>221</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="I867" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="M867" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,10 +15049,10 @@
         <v>188</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="M868" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15059,10 +15060,10 @@
         <v>229</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="M869" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15070,13 +15071,13 @@
         <v>221</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="M870" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15084,13 +15085,13 @@
         <v>229</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="M871" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="O871" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15098,13 +15099,13 @@
         <v>221</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="M872" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15112,10 +15113,10 @@
         <v>229</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="M873" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +15133,13 @@
         <v>221</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="M875" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,10 +15147,10 @@
         <v>463</v>
       </c>
       <c r="I876" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="M876" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15157,10 +15158,10 @@
         <v>463</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="M877" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15168,13 +15169,13 @@
         <v>221</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="M878" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15182,13 +15183,13 @@
         <v>463</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="M879" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15218,7 +15219,7 @@
         <v>29</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C882" s="4"/>
       <c r="D882" s="6"/>
@@ -15260,10 +15261,10 @@
         <v>78</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="M885" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,10 +15275,10 @@
         <v>78</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="M886" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15285,10 +15286,10 @@
         <v>229</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="M887" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15299,10 +15300,10 @@
         <v>78</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="M888" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15310,10 +15311,10 @@
         <v>229</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="M889" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15324,10 +15325,10 @@
         <v>78</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="M890" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15335,10 +15336,10 @@
         <v>229</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M891" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15346,7 +15347,7 @@
         <v>69</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15354,7 +15355,7 @@
         <v>29</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15362,10 +15363,10 @@
         <v>229</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="M894" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15373,7 +15374,7 @@
         <v>29</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15384,10 +15385,10 @@
         <v>78</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="M896" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,7 +15396,7 @@
         <v>766</v>
       </c>
       <c r="M897" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15406,10 +15407,10 @@
         <v>78</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="M898" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15420,10 +15421,10 @@
         <v>78</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="M899" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15434,10 +15435,10 @@
         <v>78</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="M900" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15445,10 +15446,10 @@
         <v>229</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="M901" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15459,7 +15460,7 @@
         <v>78</v>
       </c>
       <c r="I902" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="M902" s="1" t="s">
         <v>53</v>
@@ -15473,10 +15474,10 @@
         <v>78</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="M903" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15487,10 +15488,10 @@
         <v>78</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="M904" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15498,13 +15499,13 @@
         <v>229</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="M905" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="O905" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15512,7 +15513,7 @@
         <v>29</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15520,10 +15521,10 @@
         <v>229</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="M907" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15531,10 +15532,10 @@
         <v>229</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="M908" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15542,10 +15543,10 @@
         <v>229</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="M909" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15556,10 +15557,10 @@
         <v>78</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="M910" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15567,10 +15568,10 @@
         <v>229</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="M911" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15578,10 +15579,10 @@
         <v>229</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="M912" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15589,10 +15590,10 @@
         <v>229</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="M913" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15600,10 +15601,10 @@
         <v>229</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="M914" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15614,10 +15615,10 @@
         <v>78</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="M915" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15628,10 +15629,10 @@
         <v>78</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="M916" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15642,10 +15643,10 @@
         <v>78</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="M917" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15664,13 +15665,13 @@
         <v>229</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M919" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="O919" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15689,10 +15690,10 @@
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I922" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="M922" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="O922" s="1" t="s">
         <v>435</v>
@@ -15703,7 +15704,7 @@
         <v>29</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15738,13 +15739,13 @@
         <v>463</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="M929" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15752,13 +15753,13 @@
         <v>229</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="M930" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="O930" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15766,13 +15767,13 @@
         <v>463</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I931" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="M931" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15780,10 +15781,10 @@
         <v>229</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="M932" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15791,10 +15792,10 @@
         <v>463</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="M933" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15802,10 +15803,10 @@
         <v>229</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="M934" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15813,21 +15814,21 @@
         <v>463</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I935" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="M935" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I936" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M936" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15835,13 +15836,13 @@
         <v>463</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I937" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="M937" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15849,10 +15850,10 @@
         <v>463</v>
       </c>
       <c r="I938" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="M938" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15860,10 +15861,10 @@
         <v>229</v>
       </c>
       <c r="I939" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="M939" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15871,13 +15872,13 @@
         <v>463</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I940" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="M940" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15885,10 +15886,10 @@
         <v>229</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="M941" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15896,26 +15897,26 @@
         <v>229</v>
       </c>
       <c r="I942" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="M942" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I943" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="M943" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I944" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="M944" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15923,13 +15924,13 @@
         <v>463</v>
       </c>
       <c r="C945" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I945" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="M945" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15937,10 +15938,10 @@
         <v>463</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="M946" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15948,10 +15949,10 @@
         <v>463</v>
       </c>
       <c r="I947" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="M947" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15959,10 +15960,10 @@
         <v>229</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M948" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15970,18 +15971,18 @@
         <v>229</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="M949" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I950" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="M950" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15989,13 +15990,13 @@
         <v>463</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I951" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="M951" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16003,10 +16004,10 @@
         <v>463</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M952" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16014,10 +16015,10 @@
         <v>229</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="M953" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16025,13 +16026,13 @@
         <v>463</v>
       </c>
       <c r="C954" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="M954" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16039,10 +16040,10 @@
         <v>229</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="M955" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16050,10 +16051,10 @@
         <v>463</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="M956" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16061,10 +16062,10 @@
         <v>229</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M957" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16072,13 +16073,13 @@
         <v>463</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I958" s="5" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="M958" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16086,10 +16087,10 @@
         <v>463</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="M959" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16100,7 +16101,7 @@
         <v>237</v>
       </c>
       <c r="M960" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16108,10 +16109,10 @@
         <v>229</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="M961" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16119,10 +16120,10 @@
         <v>463</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="M962" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16130,10 +16131,10 @@
         <v>229</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="M963" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16141,10 +16142,10 @@
         <v>463</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="M964" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16152,10 +16153,10 @@
         <v>229</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="M965" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,10 +16164,10 @@
         <v>463</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="M966" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16174,10 +16175,10 @@
         <v>229</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="M967" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16185,13 +16186,13 @@
         <v>463</v>
       </c>
       <c r="C968" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="M968" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16199,10 +16200,10 @@
         <v>229</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="M969" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16210,13 +16211,13 @@
         <v>463</v>
       </c>
       <c r="C970" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="M970" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16224,17 +16225,17 @@
         <v>72</v>
       </c>
       <c r="O971" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O972" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O973" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16251,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="O974" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16259,26 +16260,26 @@
         <v>29</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I976" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="M976" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I977" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M977" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="O977" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16311,7 +16312,7 @@
         <v>29</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16319,13 +16320,13 @@
         <v>463</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="M981" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16344,13 +16345,13 @@
         <v>463</v>
       </c>
       <c r="C983" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="M983" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16358,16 +16359,16 @@
         <v>463</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="M984" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="O984" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16386,7 +16387,7 @@
         <v>27</v>
       </c>
       <c r="O986" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16394,7 +16395,7 @@
         <v>29</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16413,26 +16414,26 @@
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I989" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="M989" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I990" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="M990" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I991" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="M991" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16448,29 +16449,29 @@
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I993" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="M993" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I994" s="5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="M994" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I995" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="M995" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O995" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16478,21 +16479,21 @@
         <v>229</v>
       </c>
       <c r="I996" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="M996" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I997" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="M997" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="O997" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16522,13 +16523,13 @@
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1001" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="M1001" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="O1001" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16539,7 +16540,7 @@
         <v>1</v>
       </c>
       <c r="O1003" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="33.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16547,10 +16548,10 @@
         <v>69</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="O1004" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16561,12 +16562,12 @@
         <v>2</v>
       </c>
       <c r="O1005" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1006" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16574,7 +16575,7 @@
         <v>69</v>
       </c>
       <c r="B1007" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C1007" s="4"/>
       <c r="D1007" s="6"/>
@@ -16584,7 +16585,7 @@
         <v>29</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C1008" s="4"/>
       <c r="D1008" s="6"/>
@@ -16603,7 +16604,7 @@
     </row>
     <row r="1010" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O1010" s="5" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16625,26 +16626,26 @@
         <v>229</v>
       </c>
       <c r="I1012" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="M1012" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1013" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="M1013" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1014" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="M1014" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="O1014" s="1" t="s">
         <v>453</v>
@@ -16660,13 +16661,13 @@
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1016" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="M1016" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="O1016" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16696,7 +16697,7 @@
         <v>29</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16712,7 +16713,7 @@
         <v>29</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16728,7 +16729,7 @@
         <v>29</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16744,7 +16745,7 @@
         <v>29</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16790,7 +16791,7 @@
         <v>69</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16806,7 +16807,7 @@
         <v>69</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16827,7 +16828,7 @@
         <v>29</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16873,7 +16874,7 @@
         <v>29</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16897,10 +16898,10 @@
         <v>29</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M1046" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16908,29 +16909,29 @@
         <v>16</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C1047" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1047" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="M1047" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1048" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="M1048" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1049" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="O1049" s="1" t="s">
         <v>453</v>
@@ -16941,7 +16942,7 @@
         <v>29</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16957,10 +16958,10 @@
       <c r="B1052" s="6"/>
       <c r="C1052" s="4"/>
       <c r="I1052" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="M1052" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17020,23 +17021,23 @@
         <v>29</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1060" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="M1060" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1061" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="M1061" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17052,18 +17053,18 @@
         <v>29</v>
       </c>
       <c r="B1063" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="O1063" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1064" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="M1064" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17076,13 +17077,13 @@
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1066" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="M1066" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="O1066" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17098,7 +17099,7 @@
         <v>29</v>
       </c>
       <c r="B1068" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17114,7 +17115,7 @@
         <v>29</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17122,10 +17123,10 @@
         <v>229</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="M1071" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17136,10 +17137,10 @@
         <v>301</v>
       </c>
       <c r="I1072" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="M1072" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17147,10 +17148,10 @@
         <v>229</v>
       </c>
       <c r="I1073" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="M1073" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17161,10 +17162,10 @@
         <v>344</v>
       </c>
       <c r="I1074" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="M1074" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17172,10 +17173,10 @@
         <v>229</v>
       </c>
       <c r="I1075" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="M1075" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17183,13 +17184,13 @@
         <v>221</v>
       </c>
       <c r="C1076" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I1076" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="M1076" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17197,10 +17198,10 @@
         <v>229</v>
       </c>
       <c r="I1077" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="M1077" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17211,10 +17212,10 @@
         <v>344</v>
       </c>
       <c r="I1078" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="M1078" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17236,10 +17237,10 @@
         <v>222</v>
       </c>
       <c r="I1080" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="M1080" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17247,10 +17248,10 @@
         <v>229</v>
       </c>
       <c r="I1081" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="M1081" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17261,10 +17262,10 @@
         <v>334</v>
       </c>
       <c r="I1082" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="M1082" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17272,10 +17273,10 @@
         <v>229</v>
       </c>
       <c r="I1083" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="M1083" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17289,7 +17290,7 @@
         <v>317</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1084" s="1" t="s">
         <v>423</v>
@@ -17317,10 +17318,10 @@
         <v>344</v>
       </c>
       <c r="I1086" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="M1086" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17328,13 +17329,13 @@
         <v>229</v>
       </c>
       <c r="I1087" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="M1087" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="O1087" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17342,10 +17343,10 @@
         <v>29</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="O1088" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17353,10 +17354,10 @@
         <v>72</v>
       </c>
       <c r="I1089" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="M1089" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17367,10 +17368,10 @@
         <v>78</v>
       </c>
       <c r="I1090" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="M1090" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17378,26 +17379,26 @@
         <v>229</v>
       </c>
       <c r="I1091" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="M1091" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1092" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="M1092" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1093" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="M1093" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,10 +17409,10 @@
         <v>78</v>
       </c>
       <c r="I1094" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="M1094" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17419,10 +17420,10 @@
         <v>229</v>
       </c>
       <c r="I1095" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="M1095" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17433,10 +17434,10 @@
         <v>78</v>
       </c>
       <c r="I1096" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="M1096" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17444,10 +17445,10 @@
         <v>229</v>
       </c>
       <c r="I1097" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="M1097" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17458,10 +17459,10 @@
         <v>78</v>
       </c>
       <c r="I1098" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="M1098" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17480,10 +17481,10 @@
         <v>229</v>
       </c>
       <c r="I1100" s="5" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="M1100" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17494,10 +17495,10 @@
         <v>78</v>
       </c>
       <c r="I1101" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="M1101" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17505,10 +17506,10 @@
         <v>229</v>
       </c>
       <c r="I1102" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="M1102" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17516,10 +17517,10 @@
         <v>229</v>
       </c>
       <c r="I1103" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="M1103" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17541,10 +17542,10 @@
         <v>229</v>
       </c>
       <c r="I1105" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="M1105" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17555,10 +17556,10 @@
         <v>78</v>
       </c>
       <c r="I1106" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="M1106" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17566,10 +17567,10 @@
         <v>229</v>
       </c>
       <c r="I1107" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="M1107" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17580,18 +17581,18 @@
         <v>78</v>
       </c>
       <c r="I1108" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="M1108" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1109" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="M1109" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17602,10 +17603,10 @@
         <v>78</v>
       </c>
       <c r="I1110" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="M1110" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17613,10 +17614,10 @@
         <v>229</v>
       </c>
       <c r="I1111" s="5" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="M1111" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17627,10 +17628,10 @@
         <v>78</v>
       </c>
       <c r="I1112" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="M1112" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17638,10 +17639,10 @@
         <v>229</v>
       </c>
       <c r="I1113" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="M1113" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17654,7 +17655,7 @@
         <v>150</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17662,7 +17663,7 @@
         <v>362</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17681,10 +17682,10 @@
         <v>221</v>
       </c>
       <c r="I1118" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M1118" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17692,10 +17693,10 @@
         <v>221</v>
       </c>
       <c r="I1119" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="M1119" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17703,10 +17704,10 @@
         <v>229</v>
       </c>
       <c r="I1120" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M1120" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17714,10 +17715,10 @@
         <v>221</v>
       </c>
       <c r="I1121" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="M1121" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17725,10 +17726,10 @@
         <v>221</v>
       </c>
       <c r="I1122" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="M1122" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17736,10 +17737,10 @@
         <v>229</v>
       </c>
       <c r="I1123" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="M1123" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17747,10 +17748,10 @@
         <v>221</v>
       </c>
       <c r="I1124" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="M1124" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17758,10 +17759,10 @@
         <v>221</v>
       </c>
       <c r="I1125" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="M1125" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17769,10 +17770,10 @@
         <v>221</v>
       </c>
       <c r="I1126" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="M1126" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17786,7 +17787,7 @@
         <v>275</v>
       </c>
       <c r="O1127" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17794,10 +17795,10 @@
         <v>362</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="O1128" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17805,10 +17806,10 @@
         <v>229</v>
       </c>
       <c r="I1129" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M1129" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17816,10 +17817,10 @@
         <v>221</v>
       </c>
       <c r="I1130" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="M1130" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17827,10 +17828,10 @@
         <v>221</v>
       </c>
       <c r="I1131" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="M1131" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17838,10 +17839,10 @@
         <v>229</v>
       </c>
       <c r="I1132" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="M1132" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17849,10 +17850,10 @@
         <v>221</v>
       </c>
       <c r="I1133" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="M1133" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17860,13 +17861,13 @@
         <v>229</v>
       </c>
       <c r="I1134" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M1134" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O1134" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17874,7 +17875,7 @@
         <v>368</v>
       </c>
       <c r="O1135" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17882,7 +17883,7 @@
         <v>29</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17937,10 +17938,10 @@
         <v>301</v>
       </c>
       <c r="I1141" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="M1141" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17948,10 +17949,10 @@
         <v>229</v>
       </c>
       <c r="I1142" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="M1142" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17959,10 +17960,10 @@
         <v>229</v>
       </c>
       <c r="I1143" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="M1143" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17970,10 +17971,10 @@
         <v>229</v>
       </c>
       <c r="I1144" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="M1144" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17981,10 +17982,10 @@
         <v>229</v>
       </c>
       <c r="I1145" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="M1145" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17995,10 +17996,10 @@
         <v>258</v>
       </c>
       <c r="I1146" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="M1146" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18006,10 +18007,10 @@
         <v>229</v>
       </c>
       <c r="I1147" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="M1147" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18017,10 +18018,10 @@
         <v>229</v>
       </c>
       <c r="I1148" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="M1148" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18031,10 +18032,10 @@
         <v>301</v>
       </c>
       <c r="I1149" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="M1149" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18042,10 +18043,10 @@
         <v>229</v>
       </c>
       <c r="I1150" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="M1150" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18056,10 +18057,10 @@
         <v>222</v>
       </c>
       <c r="I1151" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="M1151" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18067,10 +18068,10 @@
         <v>229</v>
       </c>
       <c r="I1152" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="M1152" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18081,10 +18082,10 @@
         <v>280</v>
       </c>
       <c r="I1153" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="M1153" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18095,10 +18096,10 @@
         <v>222</v>
       </c>
       <c r="I1154" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="M1154" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18106,10 +18107,10 @@
         <v>221</v>
       </c>
       <c r="I1155" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="M1155" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18117,13 +18118,13 @@
         <v>221</v>
       </c>
       <c r="I1156" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="M1156" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="O1156" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18131,10 +18132,10 @@
         <v>221</v>
       </c>
       <c r="I1157" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="M1157" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18145,10 +18146,10 @@
         <v>236</v>
       </c>
       <c r="I1158" s="5" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="M1158" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18162,13 +18163,13 @@
         <v>221</v>
       </c>
       <c r="I1160" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="M1160" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O1160" s="5" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18191,7 +18192,7 @@
         <v>68</v>
       </c>
       <c r="O1162" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18199,7 +18200,7 @@
         <v>362</v>
       </c>
       <c r="B1163" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18234,7 +18235,7 @@
         <v>150</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18242,10 +18243,10 @@
         <v>221</v>
       </c>
       <c r="I1168" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="M1168" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18253,10 +18254,10 @@
         <v>221</v>
       </c>
       <c r="I1169" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="M1169" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18264,10 +18265,10 @@
         <v>229</v>
       </c>
       <c r="I1170" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="M1170" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18275,10 +18276,10 @@
         <v>221</v>
       </c>
       <c r="I1171" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="M1171" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18286,10 +18287,10 @@
         <v>221</v>
       </c>
       <c r="I1172" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="M1172" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18297,10 +18298,10 @@
         <v>221</v>
       </c>
       <c r="I1173" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="M1173" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18308,10 +18309,10 @@
         <v>221</v>
       </c>
       <c r="I1174" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="M1174" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18319,10 +18320,10 @@
         <v>221</v>
       </c>
       <c r="I1175" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="M1175" s="1" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18330,10 +18331,10 @@
         <v>229</v>
       </c>
       <c r="I1176" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="M1176" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18341,10 +18342,10 @@
         <v>221</v>
       </c>
       <c r="I1177" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="M1177" s="8" t="s">
         <v>1693</v>
+      </c>
+      <c r="M1177" s="7" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18352,10 +18353,10 @@
         <v>221</v>
       </c>
       <c r="I1178" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="M1178" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18363,7 +18364,7 @@
         <v>362</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18371,10 +18372,10 @@
         <v>221</v>
       </c>
       <c r="I1180" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="M1180" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18382,10 +18383,10 @@
         <v>221</v>
       </c>
       <c r="I1181" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="M1181" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18393,10 +18394,10 @@
         <v>229</v>
       </c>
       <c r="I1182" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="M1182" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18404,10 +18405,10 @@
         <v>221</v>
       </c>
       <c r="I1183" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="M1183" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18415,10 +18416,10 @@
         <v>221</v>
       </c>
       <c r="I1184" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="M1184" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18426,10 +18427,10 @@
         <v>221</v>
       </c>
       <c r="I1185" s="5" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="M1185" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18437,10 +18438,10 @@
         <v>229</v>
       </c>
       <c r="I1186" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="M1186" s="1" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18448,10 +18449,10 @@
         <v>221</v>
       </c>
       <c r="I1187" s="1" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="M1187" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18459,10 +18460,10 @@
         <v>221</v>
       </c>
       <c r="I1188" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="M1188" s="1" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18470,7 +18471,7 @@
         <v>362</v>
       </c>
       <c r="B1189" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18478,13 +18479,13 @@
         <v>221</v>
       </c>
       <c r="I1190" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="M1190" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O1190" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18492,34 +18493,34 @@
         <v>229</v>
       </c>
       <c r="I1192" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="M1192" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1193" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="M1193" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1194" s="1" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="M1194" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1195" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="M1195" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18527,10 +18528,10 @@
         <v>221</v>
       </c>
       <c r="I1196" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="M1196" s="1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18538,56 +18539,56 @@
         <v>221</v>
       </c>
       <c r="I1197" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="M1197" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1198" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="M1198" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1199" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="M1199" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="O1199" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1200" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="M1200" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1201" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="M1201" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1202" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="M1202" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O1202" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18595,7 +18596,7 @@
         <v>13</v>
       </c>
       <c r="B1203" s="1" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C1203" s="2" t="s">
         <v>18</v>
@@ -18616,12 +18617,12 @@
     </row>
     <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="6" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>

--- a/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
+++ b/AriHino/Assets/ArihinoMain/Scenarios/Snenario_Wake.xlsx
@@ -3686,16 +3686,16 @@
     <t xml:space="preserve">Hahahaha!!</t>
   </si>
   <si>
+    <t xml:space="preserve">噛み合わない。　噛み合っていない。……でも、何が？　いつから？</t>
+  </si>
+  <si>
     <t xml:space="preserve">They're not in sync. Not at all... But what? Since when?</t>
   </si>
   <si>
-    <t xml:space="preserve">噛み合わない。　噛み合っていない。……でも、何が？　いつから？</t>
+    <t xml:space="preserve">「ま、ともあれ今日は皆ご苦労だった」　</t>
   </si>
   <si>
     <t xml:space="preserve">Anyway, good job today, everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ま、ともあれ今日は皆ご苦労だった」　</t>
   </si>
   <si>
     <t xml:space="preserve">「&lt;tips=Tips0&gt;キョーコ&lt;/tips&gt;も無事に見つけられたし!」</t>
@@ -4530,25 +4530,25 @@
     <t xml:space="preserve">S夜移動7</t>
   </si>
   <si>
+    <t xml:space="preserve">草原夜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「……ふぅ」</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Phew.</t>
   </si>
   <si>
-    <t xml:space="preserve">草原夜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「……ふぅ」</t>
+    <t xml:space="preserve">流石に夜は冷える。　それでも、今の気分を落ち着かせるには丁度いい。</t>
   </si>
   <si>
     <t xml:space="preserve">It's quite chilly at night. But it's just what I need to calm down.</t>
   </si>
   <si>
-    <t xml:space="preserve">流石に夜は冷える。　それでも、今の気分を落ち着かせるには丁度いい。</t>
+    <t xml:space="preserve">適当に歩いてもっと疲れを溜めれば余計なことを考える暇なく眠れる。</t>
   </si>
   <si>
     <t xml:space="preserve">If I walk around and get more tired, I can sleep without overthinking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">適当に歩いてもっと疲れを溜めれば余計なことを考える暇なく眠れる。</t>
   </si>
   <si>
     <t xml:space="preserve">S夜移動8</t>
@@ -5424,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:O1207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A762" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I782" activeCellId="0" sqref="I782"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1033" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1045" activeCellId="0" sqref="I1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14807,16 +14807,14 @@
       <c r="C846" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M846" s="1" t="s">
-        <v>1217</v>
-      </c>
+      <c r="M846" s="0"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I847" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M847" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="M847" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14827,6 +14825,9 @@
         <v>188</v>
       </c>
       <c r="I848" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M848" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -16900,37 +16901,38 @@
       <c r="B1046" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="M1046" s="1" t="s">
-        <v>1497</v>
-      </c>
+      <c r="M1046" s="0"/>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C1047" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1047" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M1047" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="M1047" s="1" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1048" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M1048" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="M1048" s="1" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1049" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M1049" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="O1049" s="1" t="s">
